--- a/biology/Botanique/Liste_de_jardins_botaniques_alpins/Liste_de_jardins_botaniques_alpins.xlsx
+++ b/biology/Botanique/Liste_de_jardins_botaniques_alpins/Liste_de_jardins_botaniques_alpins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -507,6 +519,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -533,6 +547,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -558,7 +574,9 @@
           <t>France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jardin botanique alpin Chanousia, col du Petit-Saint-Bernard, Savoie, à la limite de la frontière italienne et du val d'Aoste.
 Jardin botanique du col du Lautaret, Villar-d'Arêne (Hautes-Alpes) .
@@ -591,7 +609,9 @@
           <t>Italie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jardin botanique alpin du château Savoie à Gressoney-Saint-Jean
 Jardin botanique alpin Paradisia en vallée d'Aoste, dans le parc national du Grand-Paradis.</t>
@@ -622,9 +642,11 @@
           <t>Slovénie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Jardin botanique alpin Juliana, parc national du Triglav (Alpes juliennes)[1]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Jardin botanique alpin Juliana, parc national du Triglav (Alpes juliennes)</t>
         </is>
       </c>
     </row>
@@ -652,7 +674,9 @@
           <t>Suisse</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Jardin botanique alpin de Meyrin à Meyrin dans le canton de Genève
 Jardin botanique alpin Flore-Alpe à Champex-Lac, station touristique de la commune d'Orsières dans le canton du Valais</t>
